--- a/Tables/Fig_1_trends/2_count_per_layer_and_year.xlsx
+++ b/Tables/Fig_1_trends/2_count_per_layer_and_year.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C42"/>
+  <dimension ref="A1:C43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -964,10 +964,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -977,10 +977,23 @@
         </is>
       </c>
       <c r="B42" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C42" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Upper layers</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
         <v>2025</v>
       </c>
-      <c r="C42" t="n">
-        <v>1</v>
+      <c r="C43" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
